--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/L1cam-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/L1cam-Ptprz1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H2">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N2">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O2">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P2">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q2">
-        <v>1.171836879920555</v>
+        <v>0.1103890146457778</v>
       </c>
       <c r="R2">
-        <v>10.546531919285</v>
+        <v>0.9935011318119999</v>
       </c>
       <c r="S2">
-        <v>0.006080036378180253</v>
+        <v>0.0008815303074028511</v>
       </c>
       <c r="T2">
-        <v>0.006080036378180253</v>
+        <v>0.0008815303074028509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H3">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I3">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J3">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.070426</v>
       </c>
       <c r="O3">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P3">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q3">
-        <v>0.4236213028015555</v>
+        <v>0.1141359595008889</v>
       </c>
       <c r="R3">
-        <v>3.812591725214</v>
+        <v>1.027223635508</v>
       </c>
       <c r="S3">
-        <v>0.002197944932216321</v>
+        <v>0.0009114521747240389</v>
       </c>
       <c r="T3">
-        <v>0.002197944932216321</v>
+        <v>0.0009114521747240388</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H4">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I4">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J4">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N4">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O4">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P4">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q4">
-        <v>129.4251382116588</v>
+        <v>49.81070344934911</v>
       </c>
       <c r="R4">
-        <v>1164.826243904929</v>
+        <v>448.296331044142</v>
       </c>
       <c r="S4">
-        <v>0.6715179920188559</v>
+        <v>0.397771869461437</v>
       </c>
       <c r="T4">
-        <v>0.6715179920188559</v>
+        <v>0.3977718694614369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1.800598</v>
       </c>
       <c r="I5">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J5">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N5">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O5">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P5">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q5">
-        <v>0.03897594437444445</v>
+        <v>0.01362732579688889</v>
       </c>
       <c r="R5">
-        <v>0.35078349937</v>
+        <v>0.122645932172</v>
       </c>
       <c r="S5">
-        <v>0.0002022253811354853</v>
+        <v>0.0001088233347979227</v>
       </c>
       <c r="T5">
-        <v>0.0002022253811354853</v>
+        <v>0.0001088233347979227</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.800598</v>
       </c>
       <c r="I6">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J6">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>0.070426</v>
       </c>
       <c r="O6">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P6">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q6">
         <v>0.01408987941644445</v>
@@ -821,10 +821,10 @@
         <v>0.126808914748</v>
       </c>
       <c r="S6">
-        <v>7.310486713983876E-05</v>
+        <v>0.0001125171356325939</v>
       </c>
       <c r="T6">
-        <v>7.310486713983874E-05</v>
+        <v>0.0001125171356325939</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.800598</v>
       </c>
       <c r="I7">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J7">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N7">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O7">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P7">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q7">
-        <v>4.304751859264223</v>
+        <v>6.149041969933556</v>
       </c>
       <c r="R7">
-        <v>38.74276673337801</v>
+        <v>55.34137772940201</v>
       </c>
       <c r="S7">
-        <v>0.02233506075106627</v>
+        <v>0.04910422359853803</v>
       </c>
       <c r="T7">
-        <v>0.02233506075106627</v>
+        <v>0.04910422359853803</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H8">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I8">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J8">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N8">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O8">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P8">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q8">
-        <v>0.2084296029827778</v>
+        <v>0.09551295488688888</v>
       </c>
       <c r="R8">
-        <v>1.875866426845</v>
+        <v>0.859616593982</v>
       </c>
       <c r="S8">
-        <v>0.001081430009704823</v>
+        <v>0.0007627349945333917</v>
       </c>
       <c r="T8">
-        <v>0.001081430009704823</v>
+        <v>0.0007627349945333917</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H9">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I9">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J9">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>0.070426</v>
       </c>
       <c r="O9">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P9">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q9">
-        <v>0.07534770535977778</v>
+        <v>0.09875496022644444</v>
       </c>
       <c r="R9">
-        <v>0.678129348238</v>
+        <v>0.8887946420379998</v>
       </c>
       <c r="S9">
-        <v>0.0003909390440339393</v>
+        <v>0.0007886245812169105</v>
       </c>
       <c r="T9">
-        <v>0.0003909390440339393</v>
+        <v>0.0007886245812169105</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H10">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I10">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J10">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N10">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O10">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P10">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q10">
-        <v>23.02029457826589</v>
+        <v>43.09819674274855</v>
       </c>
       <c r="R10">
-        <v>207.182651204393</v>
+        <v>387.8837706847369</v>
       </c>
       <c r="S10">
-        <v>0.119440026910376</v>
+        <v>0.3441680020883929</v>
       </c>
       <c r="T10">
-        <v>0.119440026910376</v>
+        <v>0.3441680020883929</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H11">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I11">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J11">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,28 +1113,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N11">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O11">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P11">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q11">
-        <v>0.3045643116494445</v>
+        <v>0.05674379052577778</v>
       </c>
       <c r="R11">
-        <v>2.741078804845</v>
+        <v>0.5106941147320001</v>
       </c>
       <c r="S11">
-        <v>0.001580221723734783</v>
+        <v>0.0004531372190059233</v>
       </c>
       <c r="T11">
-        <v>0.001580221723734783</v>
+        <v>0.0004531372190059233</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H12">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I12">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J12">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>0.070426</v>
       </c>
       <c r="O12">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P12">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q12">
-        <v>0.1101005888264445</v>
+        <v>0.0586698504208889</v>
       </c>
       <c r="R12">
-        <v>0.9909052994380001</v>
+        <v>0.528028653788</v>
       </c>
       <c r="S12">
-        <v>0.0005712532151823311</v>
+        <v>0.0004685180988594291</v>
       </c>
       <c r="T12">
-        <v>0.0005712532151823311</v>
+        <v>0.0004685180988594291</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H13">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I13">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J13">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N13">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O13">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P13">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q13">
-        <v>33.63802488639922</v>
+        <v>25.60443293692911</v>
       </c>
       <c r="R13">
-        <v>302.742223977593</v>
+        <v>230.439896432362</v>
       </c>
       <c r="S13">
-        <v>0.1745297647683741</v>
+        <v>0.204468567005459</v>
       </c>
       <c r="T13">
-        <v>0.1745297647683741</v>
+        <v>0.204468567005459</v>
       </c>
     </row>
   </sheetData>
